--- a/data/db_source/tag_dataset.xlsx
+++ b/data/db_source/tag_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannuaire/datannuaire_dev/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746FA060-6353-5443-8EEA-EDC5E4BFB51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16E160A-9313-9E48-87CD-D89AF429291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="500" windowWidth="16200" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>dataset_id</t>
   </si>
@@ -28,26 +28,50 @@
     <t>tag_id</t>
   </si>
   <si>
-    <t>dataset_1</t>
-  </si>
-  <si>
-    <t>tag_2</t>
-  </si>
-  <si>
-    <t>dataset_2</t>
-  </si>
-  <si>
-    <t>tag_13</t>
+    <t>personal_data</t>
+  </si>
+  <si>
+    <t>sensible_data</t>
+  </si>
+  <si>
+    <t>anonymous_data</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>culture</t>
+  </si>
+  <si>
+    <t>sante</t>
+  </si>
+  <si>
+    <t>dep_sante</t>
+  </si>
+  <si>
+    <t>usage_internet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -69,12 +93,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -93,8 +151,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0A889B-C842-ED47-84D7-97A521C9DB2A}" name="Tableau1" displayName="Tableau1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{1E0A889B-C842-ED47-84D7-97A521C9DB2A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E0A889B-C842-ED47-84D7-97A521C9DB2A}" name="Tableau1" displayName="Tableau1" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8" xr:uid="{1E0A889B-C842-ED47-84D7-97A521C9DB2A}"/>
   <tableColumns count="2">
     <tableColumn id="2" xr3:uid="{95942207-D280-AA44-8A83-4923CCAC8917}" name="tag_id"/>
     <tableColumn id="1" xr3:uid="{6828AA71-BACE-2747-9181-4F9D085C4669}" name="dataset_id"/>
@@ -390,18 +448,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -415,21 +473,62 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
